--- a/resources/testdata/OrgCreateTestCases.xlsx
+++ b/resources/testdata/OrgCreateTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>TCID</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>editOrgTest</t>
+  </si>
+  <si>
+    <t>addOrgUserTest</t>
   </si>
 </sst>
 </file>
@@ -426,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +467,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -470,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/resources/testdata/OrgCreateTestCases.xlsx
+++ b/resources/testdata/OrgCreateTestCases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>TCID</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>addOrgUserTest</t>
+  </si>
+  <si>
+    <t>testSearchByOrg</t>
+  </si>
+  <si>
+    <t>testSearchByOrgKeyword</t>
   </si>
 </sst>
 </file>
@@ -432,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +486,22 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>

--- a/resources/testdata/OrgCreateTestCases.xlsx
+++ b/resources/testdata/OrgCreateTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>paymentAgreement</t>
   </si>
   <si>
-    <t>AgreementName-1</t>
-  </si>
-  <si>
     <t>macroSeg</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>testSearchByOrgKeyword</t>
+  </si>
+  <si>
+    <t>autoTestPayment1</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -475,7 +475,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,13 +546,13 @@
         <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,13 +569,13 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
